--- a/sequences/00_retrieval_1.xlsx
+++ b/sequences/00_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1900,6 +1900,30 @@
       <c r="F3" t="s">
         <v>206</v>
       </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -1964,6 +1988,30 @@
       <c r="F5" t="s">
         <v>206</v>
       </c>
+      <c r="G5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2028,6 +2076,30 @@
       <c r="F7" t="s">
         <v>206</v>
       </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N7" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2092,6 +2164,30 @@
       <c r="F9" t="s">
         <v>206</v>
       </c>
+      <c r="G9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2332,6 +2428,30 @@
       <c r="F15" t="s">
         <v>206</v>
       </c>
+      <c r="G15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>206</v>
+      </c>
+      <c r="M15" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2352,6 +2472,30 @@
       <c r="F16" t="s">
         <v>206</v>
       </c>
+      <c r="G16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" t="s">
+        <v>206</v>
+      </c>
+      <c r="M16" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2372,6 +2516,30 @@
       <c r="F17" t="s">
         <v>206</v>
       </c>
+      <c r="G17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" t="s">
+        <v>206</v>
+      </c>
+      <c r="N17" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2524,6 +2692,30 @@
       <c r="F21" t="s">
         <v>206</v>
       </c>
+      <c r="G21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="s">
+        <v>206</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2588,6 +2780,30 @@
       <c r="F23" t="s">
         <v>206</v>
       </c>
+      <c r="G23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2652,6 +2868,30 @@
       <c r="F25" t="s">
         <v>206</v>
       </c>
+      <c r="G25" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2848,6 +3088,30 @@
       <c r="F30" t="s">
         <v>206</v>
       </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" t="s">
+        <v>206</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2868,6 +3132,30 @@
       <c r="F31" t="s">
         <v>206</v>
       </c>
+      <c r="G31" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" t="s">
+        <v>206</v>
+      </c>
+      <c r="M31" t="s">
+        <v>206</v>
+      </c>
+      <c r="N31" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -2976,6 +3264,30 @@
       <c r="F34" t="s">
         <v>206</v>
       </c>
+      <c r="G34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" t="s">
+        <v>206</v>
+      </c>
+      <c r="N34" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3260,6 +3572,30 @@
       <c r="F41" t="s">
         <v>206</v>
       </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" t="s">
+        <v>206</v>
+      </c>
+      <c r="M41" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3412,6 +3748,30 @@
       <c r="F45" t="s">
         <v>206</v>
       </c>
+      <c r="G45" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+      <c r="J45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" t="s">
+        <v>206</v>
+      </c>
+      <c r="L45" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" t="s">
+        <v>206</v>
+      </c>
+      <c r="N45" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3608,6 +3968,30 @@
       <c r="F50" t="s">
         <v>206</v>
       </c>
+      <c r="G50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" t="s">
+        <v>206</v>
+      </c>
+      <c r="K50" t="s">
+        <v>206</v>
+      </c>
+      <c r="L50" t="s">
+        <v>206</v>
+      </c>
+      <c r="M50" t="s">
+        <v>206</v>
+      </c>
+      <c r="N50" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3672,6 +4056,30 @@
       <c r="F52" t="s">
         <v>206</v>
       </c>
+      <c r="G52" t="s">
+        <v>206</v>
+      </c>
+      <c r="H52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I52" t="s">
+        <v>206</v>
+      </c>
+      <c r="J52" t="s">
+        <v>206</v>
+      </c>
+      <c r="K52" t="s">
+        <v>206</v>
+      </c>
+      <c r="L52" t="s">
+        <v>206</v>
+      </c>
+      <c r="M52" t="s">
+        <v>206</v>
+      </c>
+      <c r="N52" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3868,6 +4276,30 @@
       <c r="F57" t="s">
         <v>206</v>
       </c>
+      <c r="G57" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" t="s">
+        <v>206</v>
+      </c>
+      <c r="J57" t="s">
+        <v>206</v>
+      </c>
+      <c r="K57" t="s">
+        <v>206</v>
+      </c>
+      <c r="L57" t="s">
+        <v>206</v>
+      </c>
+      <c r="M57" t="s">
+        <v>206</v>
+      </c>
+      <c r="N57" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1">
@@ -3888,6 +4320,30 @@
       <c r="F58" t="s">
         <v>206</v>
       </c>
+      <c r="G58" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" t="s">
+        <v>206</v>
+      </c>
+      <c r="I58" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" t="s">
+        <v>206</v>
+      </c>
+      <c r="K58" t="s">
+        <v>206</v>
+      </c>
+      <c r="L58" t="s">
+        <v>206</v>
+      </c>
+      <c r="M58" t="s">
+        <v>206</v>
+      </c>
+      <c r="N58" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -3996,6 +4452,30 @@
       <c r="F61" t="s">
         <v>206</v>
       </c>
+      <c r="G61" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J61" t="s">
+        <v>206</v>
+      </c>
+      <c r="K61" t="s">
+        <v>206</v>
+      </c>
+      <c r="L61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M61" t="s">
+        <v>206</v>
+      </c>
+      <c r="N61" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -4060,6 +4540,30 @@
       <c r="F63" t="s">
         <v>206</v>
       </c>
+      <c r="G63" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" t="s">
+        <v>206</v>
+      </c>
+      <c r="I63" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" t="s">
+        <v>206</v>
+      </c>
+      <c r="K63" t="s">
+        <v>206</v>
+      </c>
+      <c r="L63" t="s">
+        <v>206</v>
+      </c>
+      <c r="M63" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4080,6 +4584,30 @@
       <c r="F64" t="s">
         <v>206</v>
       </c>
+      <c r="G64" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" t="s">
+        <v>206</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" t="s">
+        <v>206</v>
+      </c>
+      <c r="L64" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" t="s">
+        <v>206</v>
+      </c>
+      <c r="N64" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4276,6 +4804,30 @@
       <c r="F69" t="s">
         <v>206</v>
       </c>
+      <c r="G69" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" t="s">
+        <v>206</v>
+      </c>
+      <c r="I69" t="s">
+        <v>206</v>
+      </c>
+      <c r="J69" t="s">
+        <v>206</v>
+      </c>
+      <c r="K69" t="s">
+        <v>206</v>
+      </c>
+      <c r="L69" t="s">
+        <v>206</v>
+      </c>
+      <c r="M69" t="s">
+        <v>206</v>
+      </c>
+      <c r="N69" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4340,6 +4892,30 @@
       <c r="F71" t="s">
         <v>206</v>
       </c>
+      <c r="G71" t="s">
+        <v>206</v>
+      </c>
+      <c r="H71" t="s">
+        <v>206</v>
+      </c>
+      <c r="I71" t="s">
+        <v>206</v>
+      </c>
+      <c r="J71" t="s">
+        <v>206</v>
+      </c>
+      <c r="K71" t="s">
+        <v>206</v>
+      </c>
+      <c r="L71" t="s">
+        <v>206</v>
+      </c>
+      <c r="M71" t="s">
+        <v>206</v>
+      </c>
+      <c r="N71" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4360,6 +4936,30 @@
       <c r="F72" t="s">
         <v>206</v>
       </c>
+      <c r="G72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H72" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" t="s">
+        <v>206</v>
+      </c>
+      <c r="J72" t="s">
+        <v>206</v>
+      </c>
+      <c r="K72" t="s">
+        <v>206</v>
+      </c>
+      <c r="L72" t="s">
+        <v>206</v>
+      </c>
+      <c r="M72" t="s">
+        <v>206</v>
+      </c>
+      <c r="N72" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4424,6 +5024,30 @@
       <c r="F74" t="s">
         <v>206</v>
       </c>
+      <c r="G74" t="s">
+        <v>206</v>
+      </c>
+      <c r="H74" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" t="s">
+        <v>206</v>
+      </c>
+      <c r="J74" t="s">
+        <v>206</v>
+      </c>
+      <c r="K74" t="s">
+        <v>206</v>
+      </c>
+      <c r="L74" t="s">
+        <v>206</v>
+      </c>
+      <c r="M74" t="s">
+        <v>206</v>
+      </c>
+      <c r="N74" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
@@ -4532,6 +5156,30 @@
       <c r="F77" t="s">
         <v>206</v>
       </c>
+      <c r="G77" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" t="s">
+        <v>206</v>
+      </c>
+      <c r="I77" t="s">
+        <v>206</v>
+      </c>
+      <c r="J77" t="s">
+        <v>206</v>
+      </c>
+      <c r="K77" t="s">
+        <v>206</v>
+      </c>
+      <c r="L77" t="s">
+        <v>206</v>
+      </c>
+      <c r="M77" t="s">
+        <v>206</v>
+      </c>
+      <c r="N77" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4728,6 +5376,30 @@
       <c r="F82" t="s">
         <v>206</v>
       </c>
+      <c r="G82" t="s">
+        <v>206</v>
+      </c>
+      <c r="H82" t="s">
+        <v>206</v>
+      </c>
+      <c r="I82" t="s">
+        <v>206</v>
+      </c>
+      <c r="J82" t="s">
+        <v>206</v>
+      </c>
+      <c r="K82" t="s">
+        <v>206</v>
+      </c>
+      <c r="L82" t="s">
+        <v>206</v>
+      </c>
+      <c r="M82" t="s">
+        <v>206</v>
+      </c>
+      <c r="N82" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4880,6 +5552,30 @@
       <c r="F86" t="s">
         <v>206</v>
       </c>
+      <c r="G86" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" t="s">
+        <v>206</v>
+      </c>
+      <c r="I86" t="s">
+        <v>206</v>
+      </c>
+      <c r="J86" t="s">
+        <v>206</v>
+      </c>
+      <c r="K86" t="s">
+        <v>206</v>
+      </c>
+      <c r="L86" t="s">
+        <v>206</v>
+      </c>
+      <c r="M86" t="s">
+        <v>206</v>
+      </c>
+      <c r="N86" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -4944,6 +5640,30 @@
       <c r="F88" t="s">
         <v>206</v>
       </c>
+      <c r="G88" t="s">
+        <v>206</v>
+      </c>
+      <c r="H88" t="s">
+        <v>206</v>
+      </c>
+      <c r="I88" t="s">
+        <v>206</v>
+      </c>
+      <c r="J88" t="s">
+        <v>206</v>
+      </c>
+      <c r="K88" t="s">
+        <v>206</v>
+      </c>
+      <c r="L88" t="s">
+        <v>206</v>
+      </c>
+      <c r="M88" t="s">
+        <v>206</v>
+      </c>
+      <c r="N88" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5228,6 +5948,30 @@
       <c r="F95" t="s">
         <v>206</v>
       </c>
+      <c r="G95" t="s">
+        <v>206</v>
+      </c>
+      <c r="H95" t="s">
+        <v>206</v>
+      </c>
+      <c r="I95" t="s">
+        <v>206</v>
+      </c>
+      <c r="J95" t="s">
+        <v>206</v>
+      </c>
+      <c r="K95" t="s">
+        <v>206</v>
+      </c>
+      <c r="L95" t="s">
+        <v>206</v>
+      </c>
+      <c r="M95" t="s">
+        <v>206</v>
+      </c>
+      <c r="N95" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5512,6 +6256,30 @@
       <c r="F102" t="s">
         <v>206</v>
       </c>
+      <c r="G102" t="s">
+        <v>206</v>
+      </c>
+      <c r="H102" t="s">
+        <v>206</v>
+      </c>
+      <c r="I102" t="s">
+        <v>206</v>
+      </c>
+      <c r="J102" t="s">
+        <v>206</v>
+      </c>
+      <c r="K102" t="s">
+        <v>206</v>
+      </c>
+      <c r="L102" t="s">
+        <v>206</v>
+      </c>
+      <c r="M102" t="s">
+        <v>206</v>
+      </c>
+      <c r="N102" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
@@ -5620,6 +6388,30 @@
       <c r="F105" t="s">
         <v>206</v>
       </c>
+      <c r="G105" t="s">
+        <v>206</v>
+      </c>
+      <c r="H105" t="s">
+        <v>206</v>
+      </c>
+      <c r="I105" t="s">
+        <v>206</v>
+      </c>
+      <c r="J105" t="s">
+        <v>206</v>
+      </c>
+      <c r="K105" t="s">
+        <v>206</v>
+      </c>
+      <c r="L105" t="s">
+        <v>206</v>
+      </c>
+      <c r="M105" t="s">
+        <v>206</v>
+      </c>
+      <c r="N105" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5728,6 +6520,30 @@
       <c r="F108" t="s">
         <v>206</v>
       </c>
+      <c r="G108" t="s">
+        <v>206</v>
+      </c>
+      <c r="H108" t="s">
+        <v>206</v>
+      </c>
+      <c r="I108" t="s">
+        <v>206</v>
+      </c>
+      <c r="J108" t="s">
+        <v>206</v>
+      </c>
+      <c r="K108" t="s">
+        <v>206</v>
+      </c>
+      <c r="L108" t="s">
+        <v>206</v>
+      </c>
+      <c r="M108" t="s">
+        <v>206</v>
+      </c>
+      <c r="N108" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5792,6 +6608,30 @@
       <c r="F110" t="s">
         <v>206</v>
       </c>
+      <c r="G110" t="s">
+        <v>206</v>
+      </c>
+      <c r="H110" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" t="s">
+        <v>206</v>
+      </c>
+      <c r="J110" t="s">
+        <v>206</v>
+      </c>
+      <c r="K110" t="s">
+        <v>206</v>
+      </c>
+      <c r="L110" t="s">
+        <v>206</v>
+      </c>
+      <c r="M110" t="s">
+        <v>206</v>
+      </c>
+      <c r="N110" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5900,6 +6740,30 @@
       <c r="F113" t="s">
         <v>206</v>
       </c>
+      <c r="G113" t="s">
+        <v>206</v>
+      </c>
+      <c r="H113" t="s">
+        <v>206</v>
+      </c>
+      <c r="I113" t="s">
+        <v>206</v>
+      </c>
+      <c r="J113" t="s">
+        <v>206</v>
+      </c>
+      <c r="K113" t="s">
+        <v>206</v>
+      </c>
+      <c r="L113" t="s">
+        <v>206</v>
+      </c>
+      <c r="M113" t="s">
+        <v>206</v>
+      </c>
+      <c r="N113" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5920,6 +6784,30 @@
       <c r="F114" t="s">
         <v>206</v>
       </c>
+      <c r="G114" t="s">
+        <v>206</v>
+      </c>
+      <c r="H114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I114" t="s">
+        <v>206</v>
+      </c>
+      <c r="J114" t="s">
+        <v>206</v>
+      </c>
+      <c r="K114" t="s">
+        <v>206</v>
+      </c>
+      <c r="L114" t="s">
+        <v>206</v>
+      </c>
+      <c r="M114" t="s">
+        <v>206</v>
+      </c>
+      <c r="N114" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -6160,6 +7048,30 @@
       <c r="F120" t="s">
         <v>206</v>
       </c>
+      <c r="G120" t="s">
+        <v>206</v>
+      </c>
+      <c r="H120" t="s">
+        <v>206</v>
+      </c>
+      <c r="I120" t="s">
+        <v>206</v>
+      </c>
+      <c r="J120" t="s">
+        <v>206</v>
+      </c>
+      <c r="K120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L120" t="s">
+        <v>206</v>
+      </c>
+      <c r="M120" t="s">
+        <v>206</v>
+      </c>
+      <c r="N120" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6356,6 +7268,30 @@
       <c r="F125" t="s">
         <v>206</v>
       </c>
+      <c r="G125" t="s">
+        <v>206</v>
+      </c>
+      <c r="H125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I125" t="s">
+        <v>206</v>
+      </c>
+      <c r="J125" t="s">
+        <v>206</v>
+      </c>
+      <c r="K125" t="s">
+        <v>206</v>
+      </c>
+      <c r="L125" t="s">
+        <v>206</v>
+      </c>
+      <c r="M125" t="s">
+        <v>206</v>
+      </c>
+      <c r="N125" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
@@ -6508,6 +7444,30 @@
       <c r="F129" t="s">
         <v>206</v>
       </c>
+      <c r="G129" t="s">
+        <v>206</v>
+      </c>
+      <c r="H129" t="s">
+        <v>206</v>
+      </c>
+      <c r="I129" t="s">
+        <v>206</v>
+      </c>
+      <c r="J129" t="s">
+        <v>206</v>
+      </c>
+      <c r="K129" t="s">
+        <v>206</v>
+      </c>
+      <c r="L129" t="s">
+        <v>206</v>
+      </c>
+      <c r="M129" t="s">
+        <v>206</v>
+      </c>
+      <c r="N129" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6572,6 +7532,30 @@
       <c r="F131" t="s">
         <v>206</v>
       </c>
+      <c r="G131" t="s">
+        <v>206</v>
+      </c>
+      <c r="H131" t="s">
+        <v>206</v>
+      </c>
+      <c r="I131" t="s">
+        <v>206</v>
+      </c>
+      <c r="J131" t="s">
+        <v>206</v>
+      </c>
+      <c r="K131" t="s">
+        <v>206</v>
+      </c>
+      <c r="L131" t="s">
+        <v>206</v>
+      </c>
+      <c r="M131" t="s">
+        <v>206</v>
+      </c>
+      <c r="N131" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6592,6 +7576,30 @@
       <c r="F132" t="s">
         <v>206</v>
       </c>
+      <c r="G132" t="s">
+        <v>206</v>
+      </c>
+      <c r="H132" t="s">
+        <v>206</v>
+      </c>
+      <c r="I132" t="s">
+        <v>206</v>
+      </c>
+      <c r="J132" t="s">
+        <v>206</v>
+      </c>
+      <c r="K132" t="s">
+        <v>206</v>
+      </c>
+      <c r="L132" t="s">
+        <v>206</v>
+      </c>
+      <c r="M132" t="s">
+        <v>206</v>
+      </c>
+      <c r="N132" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6656,6 +7664,30 @@
       <c r="F134" t="s">
         <v>206</v>
       </c>
+      <c r="G134" t="s">
+        <v>206</v>
+      </c>
+      <c r="H134" t="s">
+        <v>206</v>
+      </c>
+      <c r="I134" t="s">
+        <v>206</v>
+      </c>
+      <c r="J134" t="s">
+        <v>206</v>
+      </c>
+      <c r="K134" t="s">
+        <v>206</v>
+      </c>
+      <c r="L134" t="s">
+        <v>206</v>
+      </c>
+      <c r="M134" t="s">
+        <v>206</v>
+      </c>
+      <c r="N134" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6764,6 +7796,30 @@
       <c r="F137" t="s">
         <v>206</v>
       </c>
+      <c r="G137" t="s">
+        <v>206</v>
+      </c>
+      <c r="H137" t="s">
+        <v>206</v>
+      </c>
+      <c r="I137" t="s">
+        <v>206</v>
+      </c>
+      <c r="J137" t="s">
+        <v>206</v>
+      </c>
+      <c r="K137" t="s">
+        <v>206</v>
+      </c>
+      <c r="L137" t="s">
+        <v>206</v>
+      </c>
+      <c r="M137" t="s">
+        <v>206</v>
+      </c>
+      <c r="N137" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6828,6 +7884,30 @@
       <c r="F139" t="s">
         <v>206</v>
       </c>
+      <c r="G139" t="s">
+        <v>206</v>
+      </c>
+      <c r="H139" t="s">
+        <v>206</v>
+      </c>
+      <c r="I139" t="s">
+        <v>206</v>
+      </c>
+      <c r="J139" t="s">
+        <v>206</v>
+      </c>
+      <c r="K139" t="s">
+        <v>206</v>
+      </c>
+      <c r="L139" t="s">
+        <v>206</v>
+      </c>
+      <c r="M139" t="s">
+        <v>206</v>
+      </c>
+      <c r="N139" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6892,6 +7972,30 @@
       <c r="F141" t="s">
         <v>206</v>
       </c>
+      <c r="G141" t="s">
+        <v>206</v>
+      </c>
+      <c r="H141" t="s">
+        <v>206</v>
+      </c>
+      <c r="I141" t="s">
+        <v>206</v>
+      </c>
+      <c r="J141" t="s">
+        <v>206</v>
+      </c>
+      <c r="K141" t="s">
+        <v>206</v>
+      </c>
+      <c r="L141" t="s">
+        <v>206</v>
+      </c>
+      <c r="M141" t="s">
+        <v>206</v>
+      </c>
+      <c r="N141" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -6912,6 +8016,30 @@
       <c r="F142" t="s">
         <v>206</v>
       </c>
+      <c r="G142" t="s">
+        <v>206</v>
+      </c>
+      <c r="H142" t="s">
+        <v>206</v>
+      </c>
+      <c r="I142" t="s">
+        <v>206</v>
+      </c>
+      <c r="J142" t="s">
+        <v>206</v>
+      </c>
+      <c r="K142" t="s">
+        <v>206</v>
+      </c>
+      <c r="L142" t="s">
+        <v>206</v>
+      </c>
+      <c r="M142" t="s">
+        <v>206</v>
+      </c>
+      <c r="N142" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -7020,6 +8148,30 @@
       <c r="F145" t="s">
         <v>206</v>
       </c>
+      <c r="G145" t="s">
+        <v>206</v>
+      </c>
+      <c r="H145" t="s">
+        <v>206</v>
+      </c>
+      <c r="I145" t="s">
+        <v>206</v>
+      </c>
+      <c r="J145" t="s">
+        <v>206</v>
+      </c>
+      <c r="K145" t="s">
+        <v>206</v>
+      </c>
+      <c r="L145" t="s">
+        <v>206</v>
+      </c>
+      <c r="M145" t="s">
+        <v>206</v>
+      </c>
+      <c r="N145" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7128,6 +8280,30 @@
       <c r="F148" t="s">
         <v>206</v>
       </c>
+      <c r="G148" t="s">
+        <v>206</v>
+      </c>
+      <c r="H148" t="s">
+        <v>206</v>
+      </c>
+      <c r="I148" t="s">
+        <v>206</v>
+      </c>
+      <c r="J148" t="s">
+        <v>206</v>
+      </c>
+      <c r="K148" t="s">
+        <v>206</v>
+      </c>
+      <c r="L148" t="s">
+        <v>206</v>
+      </c>
+      <c r="M148" t="s">
+        <v>206</v>
+      </c>
+      <c r="N148" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
@@ -7236,6 +8412,30 @@
       <c r="F151" t="s">
         <v>206</v>
       </c>
+      <c r="G151" t="s">
+        <v>206</v>
+      </c>
+      <c r="H151" t="s">
+        <v>206</v>
+      </c>
+      <c r="I151" t="s">
+        <v>206</v>
+      </c>
+      <c r="J151" t="s">
+        <v>206</v>
+      </c>
+      <c r="K151" t="s">
+        <v>206</v>
+      </c>
+      <c r="L151" t="s">
+        <v>206</v>
+      </c>
+      <c r="M151" t="s">
+        <v>206</v>
+      </c>
+      <c r="N151" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7388,6 +8588,30 @@
       <c r="F155" t="s">
         <v>206</v>
       </c>
+      <c r="G155" t="s">
+        <v>206</v>
+      </c>
+      <c r="H155" t="s">
+        <v>206</v>
+      </c>
+      <c r="I155" t="s">
+        <v>206</v>
+      </c>
+      <c r="J155" t="s">
+        <v>206</v>
+      </c>
+      <c r="K155" t="s">
+        <v>206</v>
+      </c>
+      <c r="L155" t="s">
+        <v>206</v>
+      </c>
+      <c r="M155" t="s">
+        <v>206</v>
+      </c>
+      <c r="N155" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7452,6 +8676,30 @@
       <c r="F157" t="s">
         <v>206</v>
       </c>
+      <c r="G157" t="s">
+        <v>206</v>
+      </c>
+      <c r="H157" t="s">
+        <v>206</v>
+      </c>
+      <c r="I157" t="s">
+        <v>206</v>
+      </c>
+      <c r="J157" t="s">
+        <v>206</v>
+      </c>
+      <c r="K157" t="s">
+        <v>206</v>
+      </c>
+      <c r="L157" t="s">
+        <v>206</v>
+      </c>
+      <c r="M157" t="s">
+        <v>206</v>
+      </c>
+      <c r="N157" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7516,6 +8764,30 @@
       <c r="F159" t="s">
         <v>206</v>
       </c>
+      <c r="G159" t="s">
+        <v>206</v>
+      </c>
+      <c r="H159" t="s">
+        <v>206</v>
+      </c>
+      <c r="I159" t="s">
+        <v>206</v>
+      </c>
+      <c r="J159" t="s">
+        <v>206</v>
+      </c>
+      <c r="K159" t="s">
+        <v>206</v>
+      </c>
+      <c r="L159" t="s">
+        <v>206</v>
+      </c>
+      <c r="M159" t="s">
+        <v>206</v>
+      </c>
+      <c r="N159" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7624,6 +8896,30 @@
       <c r="F162" t="s">
         <v>206</v>
       </c>
+      <c r="G162" t="s">
+        <v>206</v>
+      </c>
+      <c r="H162" t="s">
+        <v>206</v>
+      </c>
+      <c r="I162" t="s">
+        <v>206</v>
+      </c>
+      <c r="J162" t="s">
+        <v>206</v>
+      </c>
+      <c r="K162" t="s">
+        <v>206</v>
+      </c>
+      <c r="L162" t="s">
+        <v>206</v>
+      </c>
+      <c r="M162" t="s">
+        <v>206</v>
+      </c>
+      <c r="N162" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7688,6 +8984,30 @@
       <c r="F164" t="s">
         <v>206</v>
       </c>
+      <c r="G164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H164" t="s">
+        <v>206</v>
+      </c>
+      <c r="I164" t="s">
+        <v>206</v>
+      </c>
+      <c r="J164" t="s">
+        <v>206</v>
+      </c>
+      <c r="K164" t="s">
+        <v>206</v>
+      </c>
+      <c r="L164" t="s">
+        <v>206</v>
+      </c>
+      <c r="M164" t="s">
+        <v>206</v>
+      </c>
+      <c r="N164" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7708,6 +9028,30 @@
       <c r="F165" t="s">
         <v>206</v>
       </c>
+      <c r="G165" t="s">
+        <v>206</v>
+      </c>
+      <c r="H165" t="s">
+        <v>206</v>
+      </c>
+      <c r="I165" t="s">
+        <v>206</v>
+      </c>
+      <c r="J165" t="s">
+        <v>206</v>
+      </c>
+      <c r="K165" t="s">
+        <v>206</v>
+      </c>
+      <c r="L165" t="s">
+        <v>206</v>
+      </c>
+      <c r="M165" t="s">
+        <v>206</v>
+      </c>
+      <c r="N165" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7772,6 +9116,30 @@
       <c r="F167" t="s">
         <v>206</v>
       </c>
+      <c r="G167" t="s">
+        <v>206</v>
+      </c>
+      <c r="H167" t="s">
+        <v>206</v>
+      </c>
+      <c r="I167" t="s">
+        <v>206</v>
+      </c>
+      <c r="J167" t="s">
+        <v>206</v>
+      </c>
+      <c r="K167" t="s">
+        <v>206</v>
+      </c>
+      <c r="L167" t="s">
+        <v>206</v>
+      </c>
+      <c r="M167" t="s">
+        <v>206</v>
+      </c>
+      <c r="N167" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7792,6 +9160,30 @@
       <c r="F168" t="s">
         <v>206</v>
       </c>
+      <c r="G168" t="s">
+        <v>206</v>
+      </c>
+      <c r="H168" t="s">
+        <v>206</v>
+      </c>
+      <c r="I168" t="s">
+        <v>206</v>
+      </c>
+      <c r="J168" t="s">
+        <v>206</v>
+      </c>
+      <c r="K168" t="s">
+        <v>206</v>
+      </c>
+      <c r="L168" t="s">
+        <v>206</v>
+      </c>
+      <c r="M168" t="s">
+        <v>206</v>
+      </c>
+      <c r="N168" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
@@ -7856,6 +9248,30 @@
       <c r="F170" t="s">
         <v>206</v>
       </c>
+      <c r="G170" t="s">
+        <v>206</v>
+      </c>
+      <c r="H170" t="s">
+        <v>206</v>
+      </c>
+      <c r="I170" t="s">
+        <v>206</v>
+      </c>
+      <c r="J170" t="s">
+        <v>206</v>
+      </c>
+      <c r="K170" t="s">
+        <v>206</v>
+      </c>
+      <c r="L170" t="s">
+        <v>206</v>
+      </c>
+      <c r="M170" t="s">
+        <v>206</v>
+      </c>
+      <c r="N170" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7964,6 +9380,30 @@
       <c r="F173" t="s">
         <v>206</v>
       </c>
+      <c r="G173" t="s">
+        <v>206</v>
+      </c>
+      <c r="H173" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>206</v>
+      </c>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+      <c r="K173" t="s">
+        <v>206</v>
+      </c>
+      <c r="L173" t="s">
+        <v>206</v>
+      </c>
+      <c r="M173" t="s">
+        <v>206</v>
+      </c>
+      <c r="N173" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8248,6 +9688,30 @@
       <c r="F180" t="s">
         <v>206</v>
       </c>
+      <c r="G180" t="s">
+        <v>206</v>
+      </c>
+      <c r="H180" t="s">
+        <v>206</v>
+      </c>
+      <c r="I180" t="s">
+        <v>206</v>
+      </c>
+      <c r="J180" t="s">
+        <v>206</v>
+      </c>
+      <c r="K180" t="s">
+        <v>206</v>
+      </c>
+      <c r="L180" t="s">
+        <v>206</v>
+      </c>
+      <c r="M180" t="s">
+        <v>206</v>
+      </c>
+      <c r="N180" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8356,6 +9820,30 @@
       <c r="F183" t="s">
         <v>206</v>
       </c>
+      <c r="G183" t="s">
+        <v>206</v>
+      </c>
+      <c r="H183" t="s">
+        <v>206</v>
+      </c>
+      <c r="I183" t="s">
+        <v>206</v>
+      </c>
+      <c r="J183" t="s">
+        <v>206</v>
+      </c>
+      <c r="K183" t="s">
+        <v>206</v>
+      </c>
+      <c r="L183" t="s">
+        <v>206</v>
+      </c>
+      <c r="M183" t="s">
+        <v>206</v>
+      </c>
+      <c r="N183" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8508,6 +9996,30 @@
       <c r="F187" t="s">
         <v>206</v>
       </c>
+      <c r="G187" t="s">
+        <v>206</v>
+      </c>
+      <c r="H187" t="s">
+        <v>206</v>
+      </c>
+      <c r="I187" t="s">
+        <v>206</v>
+      </c>
+      <c r="J187" t="s">
+        <v>206</v>
+      </c>
+      <c r="K187" t="s">
+        <v>206</v>
+      </c>
+      <c r="L187" t="s">
+        <v>206</v>
+      </c>
+      <c r="M187" t="s">
+        <v>206</v>
+      </c>
+      <c r="N187" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8729,7 +10241,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>206</v>
+      </c>
+      <c r="G193" t="s">
+        <v>206</v>
+      </c>
+      <c r="H193" t="s">
+        <v>206</v>
+      </c>
+      <c r="I193" t="s">
+        <v>206</v>
+      </c>
+      <c r="J193" t="s">
+        <v>206</v>
+      </c>
+      <c r="K193" t="s">
+        <v>206</v>
+      </c>
+      <c r="L193" t="s">
+        <v>206</v>
+      </c>
+      <c r="M193" t="s">
+        <v>206</v>
+      </c>
+      <c r="N193" t="s">
         <v>206</v>
       </c>
     </row>

--- a/sequences/00_retrieval_1.xlsx
+++ b/sequences/00_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
     <t>spüren</t>
   </si>
   <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
     <t>wüten</t>
   </si>
   <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>trösten</t>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>schätzen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>beten</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>regnen</t>
   </si>
   <si>
     <t>kranken</t>
   </si>
   <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>wehen</t>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>rühren</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>öffnen</t>
   </si>
   <si>
     <t>runden</t>
   </si>
   <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>schämen</t>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>merken</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>baden</t>
   </si>
   <si>
     <t>grüßen</t>
   </si>
   <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>wählen</t>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>führen</t>
   </si>
   <si>
     <t>schmecken</t>
   </si>
   <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>drücken</t>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>rasen</t>
   </si>
   <si>
     <t>äußern</t>
   </si>
   <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>folgen</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>irren</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>schultern</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>seufzen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
+    <t>stimmen</t>
   </si>
   <si>
     <t>face/face017.jpg</t>
